--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-22.0854</v>
+        <v>-22.04730000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>5.1366</v>
+        <v>5.292400000000002</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.67930000000001</v>
+        <v>-22.81120000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.27049999999997</v>
+        <v>-19.81849999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.33550000000002</v>
+        <v>-22.32210000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>4.958200000000002</v>
+        <v>5.078300000000004</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.075999999999998</v>
+        <v>6.161300000000001</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.960499999999998</v>
+        <v>4.795799999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.94250000000001</v>
+        <v>-21.92420000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.304400000000002</v>
+        <v>5.524</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.341699999999995</v>
+        <v>6.330199999999996</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.992799999999995</v>
+        <v>9.208399999999994</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.8864</v>
+        <v>-22.84010000000002</v>
       </c>
       <c r="B20" t="n">
-        <v>5.218199999999997</v>
+        <v>5.246299999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.90689999999998</v>
+        <v>-20.00059999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.451600000000004</v>
+        <v>4.302500000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.9428</v>
+        <v>-22.01260000000001</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.04869999999996</v>
+        <v>-21.32419999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.6573</v>
+        <v>-21.81130000000001</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.628199999999998</v>
+        <v>4.642799999999998</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.16270000000001</v>
+        <v>-21.1816</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.530800000000006</v>
+        <v>9.343800000000005</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-21.86439999999999</v>
+        <v>-21.78509999999998</v>
       </c>
       <c r="B40" t="n">
-        <v>6.0432</v>
+        <v>6.098499999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>9.315899999999992</v>
+        <v>9.355799999999988</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.209499999999993</v>
+        <v>9.305699999999991</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.258400000000005</v>
+        <v>6.028100000000002</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.7971</v>
+        <v>-21.82370000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.822300000000002</v>
+        <v>5.650700000000003</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.532000000000003</v>
+        <v>5.430700000000003</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.67759999999999</v>
+        <v>-21.58599999999998</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.22399999999999</v>
+        <v>-21.954</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1188,7 +1188,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.935200000000004</v>
+        <v>4.873900000000003</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.83920000000003</v>
+        <v>-21.97910000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.25640000000001</v>
+        <v>-22.22240000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,10 +1297,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.23830000000002</v>
+        <v>-22.40130000000002</v>
       </c>
       <c r="B62" t="n">
-        <v>5.150400000000002</v>
+        <v>4.989900000000002</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.782399999999998</v>
+        <v>4.830099999999998</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.464300000000001</v>
+        <v>5.406799999999999</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.46670000000001</v>
+        <v>-21.4112</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.21019999999998</v>
+        <v>-20.15969999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.70949999999997</v>
+        <v>-21.58839999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.342999999999996</v>
+        <v>5.769899999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.93499999999999</v>
+        <v>-20.09769999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.459800000000006</v>
+        <v>5.419600000000003</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1608,7 +1608,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.564900000000002</v>
+        <v>5.745700000000002</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.420199999999998</v>
+        <v>5.489899999999998</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.6131</v>
+        <v>-21.6268</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.704899999999991</v>
+        <v>4.723099999999993</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.11420000000001</v>
+        <v>-22.08150000000001</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
